--- a/IntelliSOFT/Example CHT application/cht_pvers/forms/app/padr.xlsx
+++ b/IntelliSOFT/Example CHT application/cht_pvers/forms/app/padr.xlsx
@@ -51315,7 +51315,7 @@
       </c>
       <c r="C2" s="79">
         <f>NOW()</f>
-        <v>45070.86846</v>
+        <v>45082.87983</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>400</v>

--- a/IntelliSOFT/Example CHT application/cht_pvers/forms/app/padr.xlsx
+++ b/IntelliSOFT/Example CHT application/cht_pvers/forms/app/padr.xlsx
@@ -1800,6 +1800,9 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1808,9 +1811,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -4229,7 +4229,7 @@
       <c r="AR37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -4257,7 +4257,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
+      <c r="U38" s="25"/>
       <c r="V38" s="23"/>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
@@ -4286,59 +4286,59 @@
       <c r="A39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K39" s="22"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="28" t="s">
+      <c r="L39" s="28"/>
+      <c r="M39" s="25" t="s">
         <v>90</v>
       </c>
       <c r="N39" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
       <c r="AD39" s="22"/>
       <c r="AE39" s="22"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="20" t="s">
@@ -4350,49 +4350,49 @@
       <c r="C40" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K40" s="22"/>
-      <c r="L40" s="27"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="22"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
       <c r="AD40" s="22"/>
       <c r="AE40" s="22"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="20" t="s">
@@ -4404,12 +4404,12 @@
       <c r="C41" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="22" t="s">
         <v>86</v>
       </c>
@@ -4418,37 +4418,37 @@
         <v>98</v>
       </c>
       <c r="M41" s="22"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
       <c r="AD41" s="22"/>
       <c r="AE41" s="22"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
-      <c r="AR41" s="27"/>
+      <c r="AF41" s="28"/>
+      <c r="AG41" s="28"/>
+      <c r="AH41" s="28"/>
+      <c r="AI41" s="28"/>
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+      <c r="AN41" s="28"/>
+      <c r="AO41" s="28"/>
+      <c r="AP41" s="28"/>
+      <c r="AQ41" s="28"/>
+      <c r="AR41" s="28"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="20" t="s">
@@ -4460,49 +4460,49 @@
       <c r="C42" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="22" t="s">
         <v>86</v>
       </c>
       <c r="K42" s="22"/>
-      <c r="L42" s="27"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
       <c r="AD42" s="22"/>
       <c r="AE42" s="22"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
-      <c r="AR42" s="27"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="28"/>
+      <c r="AN42" s="28"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="28"/>
+      <c r="AR42" s="28"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="19" t="s">
@@ -4658,49 +4658,49 @@
       <c r="C46" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="26"/>
-      <c r="AA46" s="26"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="27"/>
-      <c r="AJ46" s="27"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="27"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27"/>
+      <c r="AE46" s="27"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="19" t="s">
@@ -4712,49 +4712,49 @@
       <c r="C47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="27" t="s">
+      <c r="L47" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="26"/>
-      <c r="AA47" s="26"/>
-      <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-      <c r="AE47" s="26"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="27"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27"/>
+      <c r="AE47" s="27"/>
+      <c r="AF47" s="28"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="28"/>
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+      <c r="AN47" s="28"/>
+      <c r="AO47" s="28"/>
+      <c r="AP47" s="28"/>
+      <c r="AQ47" s="28"/>
+      <c r="AR47" s="28"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="20" t="s">
@@ -4766,49 +4766,49 @@
       <c r="C48" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K48" s="34"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="26"/>
-      <c r="AA48" s="26"/>
-      <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-      <c r="AE48" s="26"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="27"/>
-      <c r="AJ48" s="27"/>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="27"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="27"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="27"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28"/>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28"/>
+      <c r="AR48" s="28"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="19" t="s">
@@ -4820,49 +4820,49 @@
       <c r="C49" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="34"/>
       <c r="L49" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-      <c r="AE49" s="26"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="27"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="27"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
-      <c r="AQ49" s="27"/>
-      <c r="AR49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="28"/>
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="28"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+      <c r="AN49" s="28"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="28"/>
+      <c r="AQ49" s="28"/>
+      <c r="AR49" s="28"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="19" t="s">
@@ -4870,47 +4870,47 @@
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="21"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="34"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="26"/>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="28"/>
+      <c r="AM50" s="28"/>
+      <c r="AN50" s="28"/>
+      <c r="AO50" s="28"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="28"/>
+      <c r="AR50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="19" t="s">
@@ -4920,47 +4920,47 @@
         <v>101</v>
       </c>
       <c r="C51" s="21"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-      <c r="AE51" s="26"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="28"/>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+      <c r="AN51" s="28"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="28"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="8"/>
@@ -5018,49 +5018,49 @@
       <c r="C53" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="L53" s="27"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27"/>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27"/>
-      <c r="AQ53" s="27"/>
-      <c r="AR53" s="27"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="28"/>
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28"/>
+      <c r="AN53" s="28"/>
+      <c r="AO53" s="28"/>
+      <c r="AP53" s="28"/>
+      <c r="AQ53" s="28"/>
+      <c r="AR53" s="28"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="19" t="s">
@@ -5072,49 +5072,49 @@
       <c r="C54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="34"/>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="26"/>
-      <c r="AA54" s="26"/>
-      <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
-      <c r="AE54" s="26"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="27"/>
-      <c r="AI54" s="27"/>
-      <c r="AJ54" s="27"/>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="27"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="27"/>
-      <c r="AO54" s="27"/>
-      <c r="AP54" s="27"/>
-      <c r="AQ54" s="27"/>
-      <c r="AR54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28"/>
+      <c r="AN54" s="28"/>
+      <c r="AO54" s="28"/>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28"/>
+      <c r="AR54" s="28"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="20" t="s">
@@ -5126,49 +5126,49 @@
       <c r="C55" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K55" s="34"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="26"/>
-      <c r="AA55" s="26"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="26"/>
-      <c r="AD55" s="26"/>
-      <c r="AE55" s="26"/>
-      <c r="AF55" s="27"/>
-      <c r="AG55" s="27"/>
-      <c r="AH55" s="27"/>
-      <c r="AI55" s="27"/>
-      <c r="AJ55" s="27"/>
-      <c r="AK55" s="27"/>
-      <c r="AL55" s="27"/>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="27"/>
-      <c r="AO55" s="27"/>
-      <c r="AP55" s="27"/>
-      <c r="AQ55" s="27"/>
-      <c r="AR55" s="27"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="27"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="27"/>
+      <c r="AC55" s="27"/>
+      <c r="AD55" s="27"/>
+      <c r="AE55" s="27"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="28"/>
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="28"/>
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+      <c r="AN55" s="28"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="28"/>
+      <c r="AQ55" s="28"/>
+      <c r="AR55" s="28"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="19" t="s">
@@ -5180,47 +5180,47 @@
       <c r="C56" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
       <c r="K56" s="34"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
-      <c r="AD56" s="26"/>
-      <c r="AE56" s="26"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="27"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="27"/>
-      <c r="AL56" s="27"/>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="27"/>
-      <c r="AO56" s="27"/>
-      <c r="AP56" s="27"/>
-      <c r="AQ56" s="27"/>
-      <c r="AR56" s="27"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="27"/>
+      <c r="AC56" s="27"/>
+      <c r="AD56" s="27"/>
+      <c r="AE56" s="27"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="28"/>
+      <c r="AM56" s="28"/>
+      <c r="AN56" s="28"/>
+      <c r="AO56" s="28"/>
+      <c r="AP56" s="28"/>
+      <c r="AQ56" s="28"/>
+      <c r="AR56" s="28"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="19" t="s">
@@ -5232,53 +5232,53 @@
       <c r="C57" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27" t="s">
         <v>86</v>
       </c>
       <c r="K57" s="34"/>
-      <c r="L57" s="27"/>
+      <c r="L57" s="28"/>
       <c r="M57" s="35" t="s">
         <v>123</v>
       </c>
       <c r="N57" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="27"/>
-      <c r="AI57" s="27"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="27"/>
-      <c r="AL57" s="27"/>
-      <c r="AM57" s="27"/>
-      <c r="AN57" s="27"/>
-      <c r="AO57" s="27"/>
-      <c r="AP57" s="27"/>
-      <c r="AQ57" s="27"/>
-      <c r="AR57" s="27"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="27"/>
+      <c r="AD57" s="27"/>
+      <c r="AE57" s="27"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="28"/>
+      <c r="AK57" s="28"/>
+      <c r="AL57" s="28"/>
+      <c r="AM57" s="28"/>
+      <c r="AN57" s="28"/>
+      <c r="AO57" s="28"/>
+      <c r="AP57" s="28"/>
+      <c r="AQ57" s="28"/>
+      <c r="AR57" s="28"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="20" t="s">
@@ -5290,47 +5290,47 @@
       <c r="C58" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="34"/>
       <c r="L58" s="36"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="27"/>
-      <c r="AI58" s="27"/>
-      <c r="AJ58" s="27"/>
-      <c r="AK58" s="27"/>
-      <c r="AL58" s="27"/>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="27"/>
-      <c r="AO58" s="27"/>
-      <c r="AP58" s="27"/>
-      <c r="AQ58" s="27"/>
-      <c r="AR58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="28"/>
+      <c r="AL58" s="28"/>
+      <c r="AM58" s="28"/>
+      <c r="AN58" s="28"/>
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="28"/>
+      <c r="AR58" s="28"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="19" t="s">
@@ -5338,47 +5338,47 @@
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="21"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AQ59" s="27"/>
-      <c r="AR59" s="27"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="28"/>
+      <c r="AG59" s="28"/>
+      <c r="AH59" s="28"/>
+      <c r="AI59" s="28"/>
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="28"/>
+      <c r="AL59" s="28"/>
+      <c r="AM59" s="28"/>
+      <c r="AN59" s="28"/>
+      <c r="AO59" s="28"/>
+      <c r="AP59" s="28"/>
+      <c r="AQ59" s="28"/>
+      <c r="AR59" s="28"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="19" t="s">
@@ -5388,47 +5388,47 @@
         <v>111</v>
       </c>
       <c r="C60" s="21"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="34"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="27"/>
-      <c r="AI60" s="27"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="27"/>
-      <c r="AL60" s="27"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="27"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="27"/>
-      <c r="AQ60" s="27"/>
-      <c r="AR60" s="27"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="28"/>
+      <c r="AL60" s="28"/>
+      <c r="AM60" s="28"/>
+      <c r="AN60" s="28"/>
+      <c r="AO60" s="28"/>
+      <c r="AP60" s="28"/>
+      <c r="AQ60" s="28"/>
+      <c r="AR60" s="28"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="37"/>
@@ -5486,47 +5486,47 @@
       <c r="C62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="30"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="27"/>
-      <c r="AJ62" s="27"/>
-      <c r="AK62" s="27"/>
-      <c r="AL62" s="27"/>
-      <c r="AM62" s="27"/>
-      <c r="AN62" s="27"/>
-      <c r="AO62" s="27"/>
-      <c r="AP62" s="27"/>
-      <c r="AQ62" s="27"/>
-      <c r="AR62" s="27"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="27"/>
+      <c r="AD62" s="27"/>
+      <c r="AE62" s="27"/>
+      <c r="AF62" s="28"/>
+      <c r="AG62" s="28"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="28"/>
+      <c r="AN62" s="28"/>
+      <c r="AO62" s="28"/>
+      <c r="AP62" s="28"/>
+      <c r="AQ62" s="28"/>
+      <c r="AR62" s="28"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="40" t="s">
@@ -5538,36 +5538,36 @@
       <c r="C63" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
       <c r="L63" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M63" s="26"/>
+      <c r="M63" s="27"/>
       <c r="N63" s="22"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="26"/>
-      <c r="S63" s="26"/>
-      <c r="T63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="27"/>
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
-      <c r="X63" s="26"/>
-      <c r="Y63" s="26"/>
-      <c r="Z63" s="26"/>
-      <c r="AA63" s="26"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="26"/>
-      <c r="AD63" s="26"/>
-      <c r="AE63" s="26"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="27"/>
+      <c r="AD63" s="27"/>
+      <c r="AE63" s="27"/>
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="22"/>
@@ -5592,34 +5592,34 @@
       <c r="C64" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
       <c r="L64" s="22"/>
-      <c r="M64" s="26"/>
+      <c r="M64" s="27"/>
       <c r="N64" s="22"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="26"/>
-      <c r="T64" s="26"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
-      <c r="X64" s="26"/>
-      <c r="Y64" s="26"/>
-      <c r="Z64" s="26"/>
-      <c r="AA64" s="26"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="26"/>
-      <c r="AD64" s="26"/>
-      <c r="AE64" s="26"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="27"/>
+      <c r="AD64" s="27"/>
+      <c r="AE64" s="27"/>
       <c r="AF64" s="22"/>
       <c r="AG64" s="22"/>
       <c r="AH64" s="22"/>
@@ -5644,42 +5644,42 @@
       <c r="C65" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="K65" s="26"/>
+      <c r="K65" s="27"/>
       <c r="L65" s="22"/>
       <c r="M65" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N65" s="28" t="s">
+      <c r="N65" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="26"/>
-      <c r="T65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="27"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
       <c r="W65" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="X65" s="26"/>
-      <c r="Y65" s="26"/>
-      <c r="Z65" s="26"/>
-      <c r="AA65" s="26"/>
-      <c r="AB65" s="26"/>
-      <c r="AC65" s="26"/>
-      <c r="AD65" s="26"/>
-      <c r="AE65" s="26"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="27"/>
+      <c r="AD65" s="27"/>
+      <c r="AE65" s="27"/>
       <c r="AF65" s="22"/>
       <c r="AG65" s="22"/>
       <c r="AH65" s="22"/>
@@ -5704,36 +5704,36 @@
       <c r="C66" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26" t="s">
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L66" s="22"/>
-      <c r="M66" s="26"/>
+      <c r="M66" s="27"/>
       <c r="N66" s="22"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="26"/>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="26"/>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="26"/>
-      <c r="AE66" s="26"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
       <c r="AF66" s="22"/>
       <c r="AG66" s="22"/>
       <c r="AH66" s="22"/>
@@ -5758,36 +5758,36 @@
       <c r="C67" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26" t="s">
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L67" s="22"/>
-      <c r="M67" s="26"/>
+      <c r="M67" s="27"/>
       <c r="N67" s="22"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="26"/>
-      <c r="S67" s="26"/>
-      <c r="T67" s="26"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
       <c r="W67" s="22"/>
-      <c r="X67" s="26"/>
-      <c r="Y67" s="26"/>
-      <c r="Z67" s="26"/>
-      <c r="AA67" s="26"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="26"/>
-      <c r="AD67" s="26"/>
-      <c r="AE67" s="26"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="27"/>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="27"/>
       <c r="AF67" s="22"/>
       <c r="AG67" s="22"/>
       <c r="AH67" s="22"/>
@@ -5812,36 +5812,36 @@
       <c r="C68" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L68" s="22"/>
-      <c r="M68" s="26"/>
+      <c r="M68" s="27"/>
       <c r="N68" s="22"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="26"/>
-      <c r="S68" s="26"/>
-      <c r="T68" s="26"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
-      <c r="X68" s="26"/>
-      <c r="Y68" s="26"/>
-      <c r="Z68" s="26"/>
-      <c r="AA68" s="26"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
-      <c r="AD68" s="26"/>
-      <c r="AE68" s="26"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
       <c r="AF68" s="22"/>
       <c r="AG68" s="22"/>
       <c r="AH68" s="22"/>
@@ -5866,14 +5866,14 @@
       <c r="C69" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L69" s="22"/>
@@ -5883,23 +5883,23 @@
       <c r="N69" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
       <c r="W69" s="22"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
-      <c r="AD69" s="26"/>
-      <c r="AE69" s="26"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
       <c r="AF69" s="22"/>
       <c r="AG69" s="22"/>
       <c r="AH69" s="22"/>
@@ -5924,14 +5924,14 @@
       <c r="C70" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26" t="s">
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L70" s="22"/>
@@ -5941,23 +5941,23 @@
       <c r="N70" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
       <c r="U70" s="22"/>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="26"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="26"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
       <c r="AF70" s="22"/>
       <c r="AG70" s="22"/>
       <c r="AH70" s="22"/>
@@ -5982,14 +5982,14 @@
       <c r="C71" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26" t="s">
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27" t="s">
         <v>141</v>
       </c>
       <c r="L71" s="22"/>
@@ -5997,23 +5997,23 @@
       <c r="N71" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="27"/>
       <c r="U71" s="22"/>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
-      <c r="X71" s="26"/>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="27"/>
+      <c r="AD71" s="27"/>
+      <c r="AE71" s="27"/>
       <c r="AF71" s="22"/>
       <c r="AG71" s="22"/>
       <c r="AH71" s="22"/>
@@ -6084,36 +6084,36 @@
       <c r="C73" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26" t="s">
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L73" s="22"/>
-      <c r="M73" s="26"/>
+      <c r="M73" s="27"/>
       <c r="N73" s="22"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="27"/>
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
       <c r="W73" s="22"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="26"/>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="27"/>
+      <c r="AD73" s="27"/>
+      <c r="AE73" s="27"/>
       <c r="AF73" s="22"/>
       <c r="AG73" s="22"/>
       <c r="AH73" s="22"/>
@@ -6138,36 +6138,36 @@
       <c r="C74" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26" t="s">
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L74" s="22"/>
-      <c r="M74" s="26"/>
+      <c r="M74" s="27"/>
       <c r="N74" s="22"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="26"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
       <c r="U74" s="22"/>
       <c r="V74" s="22"/>
       <c r="W74" s="22"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
       <c r="AF74" s="22" t="s">
         <v>39</v>
       </c>
@@ -6194,36 +6194,36 @@
       <c r="C75" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26" t="s">
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L75" s="22"/>
-      <c r="M75" s="26"/>
+      <c r="M75" s="27"/>
       <c r="N75" s="22"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="26"/>
-      <c r="T75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
       <c r="W75" s="22"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26"/>
-      <c r="AB75" s="26"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="26"/>
-      <c r="AE75" s="26"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
       <c r="AF75" s="22"/>
       <c r="AG75" s="22" t="s">
         <v>159</v>
@@ -6250,36 +6250,36 @@
       <c r="C76" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26" t="s">
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L76" s="22"/>
-      <c r="M76" s="26"/>
+      <c r="M76" s="27"/>
       <c r="N76" s="22"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
       <c r="U76" s="22"/>
       <c r="V76" s="22"/>
       <c r="W76" s="22"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="26"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27"/>
+      <c r="AE76" s="27"/>
       <c r="AF76" s="22"/>
       <c r="AG76" s="22"/>
       <c r="AH76" s="22"/>
@@ -6304,36 +6304,36 @@
       <c r="C77" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26" t="s">
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27" t="s">
         <v>154</v>
       </c>
       <c r="L77" s="22"/>
-      <c r="M77" s="26"/>
+      <c r="M77" s="27"/>
       <c r="N77" s="22"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="26"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
       <c r="U77" s="22"/>
       <c r="V77" s="22"/>
       <c r="W77" s="22"/>
-      <c r="X77" s="26"/>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="26"/>
-      <c r="AA77" s="26"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="26"/>
-      <c r="AD77" s="26"/>
-      <c r="AE77" s="26"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+      <c r="Z77" s="27"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="27"/>
+      <c r="AC77" s="27"/>
+      <c r="AD77" s="27"/>
+      <c r="AE77" s="27"/>
       <c r="AF77" s="22"/>
       <c r="AG77" s="22"/>
       <c r="AH77" s="22"/>
@@ -6358,36 +6358,36 @@
       <c r="C78" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
       <c r="K78" s="29" t="s">
         <v>154</v>
       </c>
       <c r="L78" s="22"/>
-      <c r="M78" s="26"/>
+      <c r="M78" s="27"/>
       <c r="N78" s="22"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="26"/>
-      <c r="T78" s="26"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
       <c r="U78" s="22"/>
       <c r="V78" s="22"/>
       <c r="W78" s="22"/>
-      <c r="X78" s="26"/>
-      <c r="Y78" s="26"/>
-      <c r="Z78" s="26"/>
-      <c r="AA78" s="26"/>
-      <c r="AB78" s="26"/>
-      <c r="AC78" s="26"/>
-      <c r="AD78" s="26"/>
-      <c r="AE78" s="26"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+      <c r="Z78" s="27"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="27"/>
+      <c r="AC78" s="27"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="27"/>
       <c r="AF78" s="22"/>
       <c r="AG78" s="22"/>
       <c r="AH78" s="22"/>
@@ -6412,13 +6412,13 @@
       <c r="C79" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
       <c r="K79" s="29" t="s">
         <v>154</v>
       </c>
@@ -6429,23 +6429,23 @@
       <c r="N79" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
       <c r="U79" s="22"/>
       <c r="V79" s="22"/>
       <c r="W79" s="22"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
       <c r="AF79" s="22"/>
       <c r="AG79" s="22"/>
       <c r="AH79" s="22"/>
@@ -6470,13 +6470,13 @@
       <c r="C80" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
       <c r="K80" s="29" t="s">
         <v>154</v>
       </c>
@@ -6487,23 +6487,23 @@
       <c r="N80" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="26"/>
-      <c r="S80" s="26"/>
-      <c r="T80" s="26"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
       <c r="U80" s="22"/>
       <c r="V80" s="22"/>
       <c r="W80" s="22"/>
-      <c r="X80" s="26"/>
-      <c r="Y80" s="26"/>
-      <c r="Z80" s="26"/>
-      <c r="AA80" s="26"/>
-      <c r="AB80" s="26"/>
-      <c r="AC80" s="26"/>
-      <c r="AD80" s="26"/>
-      <c r="AE80" s="26"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+      <c r="Z80" s="27"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="27"/>
+      <c r="AC80" s="27"/>
+      <c r="AD80" s="27"/>
+      <c r="AE80" s="27"/>
       <c r="AF80" s="22"/>
       <c r="AG80" s="22"/>
       <c r="AH80" s="22"/>
@@ -6528,13 +6528,13 @@
       <c r="C81" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
       <c r="K81" s="29" t="s">
         <v>154</v>
       </c>
@@ -6543,23 +6543,23 @@
       <c r="N81" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
-      <c r="T81" s="26"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
       <c r="U81" s="22"/>
       <c r="V81" s="22"/>
       <c r="W81" s="22"/>
-      <c r="X81" s="26"/>
-      <c r="Y81" s="26"/>
-      <c r="Z81" s="26"/>
-      <c r="AA81" s="26"/>
-      <c r="AB81" s="26"/>
-      <c r="AC81" s="26"/>
-      <c r="AD81" s="26"/>
-      <c r="AE81" s="26"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
       <c r="AF81" s="22"/>
       <c r="AG81" s="22"/>
       <c r="AH81" s="22"/>
@@ -6584,34 +6584,34 @@
       <c r="C82" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="26"/>
+      <c r="M82" s="27"/>
       <c r="N82" s="22"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
-      <c r="T82" s="26"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
       <c r="U82" s="22"/>
       <c r="V82" s="22"/>
       <c r="W82" s="22"/>
-      <c r="X82" s="26"/>
-      <c r="Y82" s="26"/>
-      <c r="Z82" s="26"/>
-      <c r="AA82" s="26"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="26"/>
-      <c r="AD82" s="26"/>
-      <c r="AE82" s="26"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+      <c r="Z82" s="27"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="27"/>
+      <c r="AC82" s="27"/>
+      <c r="AD82" s="27"/>
+      <c r="AE82" s="27"/>
       <c r="AF82" s="22"/>
       <c r="AG82" s="22"/>
       <c r="AH82" s="22"/>
@@ -6632,34 +6632,34 @@
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="41"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
       <c r="L83" s="22"/>
-      <c r="M83" s="26"/>
+      <c r="M83" s="27"/>
       <c r="N83" s="22"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
-      <c r="T83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
       <c r="U83" s="22"/>
       <c r="V83" s="22"/>
       <c r="W83" s="22"/>
-      <c r="X83" s="26"/>
-      <c r="Y83" s="26"/>
-      <c r="Z83" s="26"/>
-      <c r="AA83" s="26"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="26"/>
-      <c r="AD83" s="26"/>
-      <c r="AE83" s="26"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
       <c r="AF83" s="22"/>
       <c r="AG83" s="22"/>
       <c r="AH83" s="22"/>
@@ -6682,34 +6682,34 @@
         <v>128</v>
       </c>
       <c r="C84" s="41"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
       <c r="L84" s="22"/>
-      <c r="M84" s="26"/>
+      <c r="M84" s="27"/>
       <c r="N84" s="22"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
       <c r="U84" s="22"/>
       <c r="V84" s="22"/>
       <c r="W84" s="22"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-      <c r="AD84" s="26"/>
-      <c r="AE84" s="26"/>
+      <c r="X84" s="27"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
       <c r="AF84" s="22"/>
       <c r="AG84" s="22"/>
       <c r="AH84" s="22"/>
@@ -6780,47 +6780,47 @@
       <c r="C86" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
       <c r="K86" s="30"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27"/>
-      <c r="U86" s="27"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="26"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="27"/>
-      <c r="AG86" s="27"/>
-      <c r="AH86" s="27"/>
-      <c r="AI86" s="27"/>
-      <c r="AJ86" s="27"/>
-      <c r="AK86" s="27"/>
-      <c r="AL86" s="27"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="27"/>
-      <c r="AO86" s="27"/>
-      <c r="AP86" s="27"/>
-      <c r="AQ86" s="27"/>
-      <c r="AR86" s="27"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="27"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+      <c r="AF86" s="28"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="28"/>
+      <c r="AI86" s="28"/>
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="28"/>
+      <c r="AL86" s="28"/>
+      <c r="AM86" s="28"/>
+      <c r="AN86" s="28"/>
+      <c r="AO86" s="28"/>
+      <c r="AP86" s="28"/>
+      <c r="AQ86" s="28"/>
+      <c r="AR86" s="28"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
@@ -6832,49 +6832,49 @@
       <c r="C87" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="30"/>
-      <c r="L87" s="27" t="s">
+      <c r="L87" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M87" s="26"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27"/>
-      <c r="U87" s="27"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="26"/>
-      <c r="AA87" s="26"/>
-      <c r="AB87" s="26"/>
-      <c r="AC87" s="26"/>
-      <c r="AD87" s="26"/>
-      <c r="AE87" s="26"/>
-      <c r="AF87" s="27"/>
-      <c r="AG87" s="27"/>
-      <c r="AH87" s="27"/>
-      <c r="AI87" s="27"/>
-      <c r="AJ87" s="27"/>
-      <c r="AK87" s="27"/>
-      <c r="AL87" s="27"/>
-      <c r="AM87" s="27"/>
-      <c r="AN87" s="27"/>
-      <c r="AO87" s="27"/>
-      <c r="AP87" s="27"/>
-      <c r="AQ87" s="27"/>
-      <c r="AR87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="27"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+      <c r="AF87" s="28"/>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="28"/>
+      <c r="AI87" s="28"/>
+      <c r="AJ87" s="28"/>
+      <c r="AK87" s="28"/>
+      <c r="AL87" s="28"/>
+      <c r="AM87" s="28"/>
+      <c r="AN87" s="28"/>
+      <c r="AO87" s="28"/>
+      <c r="AP87" s="28"/>
+      <c r="AQ87" s="28"/>
+      <c r="AR87" s="28"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="20" t="s">
@@ -6886,49 +6886,49 @@
       <c r="C88" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
       <c r="J88" s="29" t="s">
         <v>86</v>
       </c>
       <c r="K88" s="30"/>
       <c r="L88" s="36"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="27"/>
-      <c r="Q88" s="27"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27"/>
-      <c r="U88" s="27"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="26"/>
-      <c r="AA88" s="26"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="26"/>
-      <c r="AD88" s="26"/>
-      <c r="AE88" s="26"/>
-      <c r="AF88" s="27"/>
-      <c r="AG88" s="27"/>
-      <c r="AH88" s="27"/>
-      <c r="AI88" s="27"/>
-      <c r="AJ88" s="27"/>
-      <c r="AK88" s="27"/>
-      <c r="AL88" s="27"/>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="27"/>
-      <c r="AO88" s="27"/>
-      <c r="AP88" s="27"/>
-      <c r="AQ88" s="27"/>
-      <c r="AR88" s="27"/>
+      <c r="M88" s="27"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="27"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
+      <c r="AJ88" s="28"/>
+      <c r="AK88" s="28"/>
+      <c r="AL88" s="28"/>
+      <c r="AM88" s="28"/>
+      <c r="AN88" s="28"/>
+      <c r="AO88" s="28"/>
+      <c r="AP88" s="28"/>
+      <c r="AQ88" s="28"/>
+      <c r="AR88" s="28"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="20" t="s">
@@ -6940,47 +6940,47 @@
       <c r="C89" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
       <c r="K89" s="34"/>
       <c r="L89" s="36"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="27"/>
-      <c r="Q89" s="27"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27"/>
-      <c r="U89" s="27"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="26"/>
-      <c r="AA89" s="26"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="26"/>
-      <c r="AD89" s="26"/>
-      <c r="AE89" s="26"/>
-      <c r="AF89" s="27"/>
-      <c r="AG89" s="27"/>
-      <c r="AH89" s="27"/>
-      <c r="AI89" s="27"/>
-      <c r="AJ89" s="27"/>
-      <c r="AK89" s="27"/>
-      <c r="AL89" s="27"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="27"/>
-      <c r="AO89" s="27"/>
-      <c r="AP89" s="27"/>
-      <c r="AQ89" s="27"/>
-      <c r="AR89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="28"/>
+      <c r="AG89" s="28"/>
+      <c r="AH89" s="28"/>
+      <c r="AI89" s="28"/>
+      <c r="AJ89" s="28"/>
+      <c r="AK89" s="28"/>
+      <c r="AL89" s="28"/>
+      <c r="AM89" s="28"/>
+      <c r="AN89" s="28"/>
+      <c r="AO89" s="28"/>
+      <c r="AP89" s="28"/>
+      <c r="AQ89" s="28"/>
+      <c r="AR89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="40" t="s">
@@ -6989,15 +6989,15 @@
       <c r="B90" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
       <c r="J90" s="29" t="s">
         <v>86</v>
       </c>
@@ -7008,26 +7008,26 @@
       <c r="M90" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="N90" s="28" t="s">
+      <c r="N90" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
-      <c r="T90" s="26"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
       <c r="U90" s="22"/>
       <c r="V90" s="22"/>
       <c r="W90" s="43"/>
-      <c r="X90" s="26"/>
-      <c r="Y90" s="26"/>
-      <c r="Z90" s="26"/>
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="26"/>
-      <c r="AD90" s="26"/>
-      <c r="AE90" s="26"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="27"/>
+      <c r="Z90" s="27"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
       <c r="AF90" s="22"/>
       <c r="AG90" s="22"/>
       <c r="AH90" s="22"/>
@@ -7052,12 +7052,12 @@
       <c r="C91" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="29" t="s">
         <v>86</v>
       </c>
@@ -7065,38 +7065,38 @@
         <v>181</v>
       </c>
       <c r="L91" s="36"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="26"/>
-      <c r="AA91" s="26"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="26"/>
-      <c r="AD91" s="26"/>
-      <c r="AE91" s="26"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="27"/>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="27"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="27"/>
-      <c r="AO91" s="27"/>
-      <c r="AP91" s="27"/>
-      <c r="AQ91" s="27"/>
-      <c r="AR91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="27"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="28"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
+      <c r="AJ91" s="28"/>
+      <c r="AK91" s="28"/>
+      <c r="AL91" s="28"/>
+      <c r="AM91" s="28"/>
+      <c r="AN91" s="28"/>
+      <c r="AO91" s="28"/>
+      <c r="AP91" s="28"/>
+      <c r="AQ91" s="28"/>
+      <c r="AR91" s="28"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="40" t="s">
@@ -7108,36 +7108,36 @@
       <c r="C92" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
       <c r="K92" s="29" t="s">
         <v>181</v>
       </c>
       <c r="L92" s="22"/>
-      <c r="M92" s="26"/>
+      <c r="M92" s="27"/>
       <c r="N92" s="22"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
-      <c r="T92" s="26"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="27"/>
+      <c r="S92" s="27"/>
+      <c r="T92" s="27"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
-      <c r="X92" s="26"/>
-      <c r="Y92" s="26"/>
-      <c r="Z92" s="26"/>
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="26"/>
-      <c r="AC92" s="26"/>
-      <c r="AD92" s="26"/>
-      <c r="AE92" s="26"/>
+      <c r="X92" s="27"/>
+      <c r="Y92" s="27"/>
+      <c r="Z92" s="27"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="27"/>
+      <c r="AC92" s="27"/>
+      <c r="AD92" s="27"/>
+      <c r="AE92" s="27"/>
       <c r="AF92" s="22"/>
       <c r="AG92" s="22"/>
       <c r="AH92" s="22"/>
@@ -7162,36 +7162,36 @@
       <c r="C93" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
       <c r="K93" s="29" t="s">
         <v>186</v>
       </c>
       <c r="L93" s="22"/>
-      <c r="M93" s="26"/>
+      <c r="M93" s="27"/>
       <c r="N93" s="22"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
-      <c r="T93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="27"/>
       <c r="U93" s="22"/>
       <c r="V93" s="22"/>
       <c r="W93" s="22"/>
-      <c r="X93" s="26"/>
-      <c r="Y93" s="26"/>
-      <c r="Z93" s="26"/>
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="26"/>
-      <c r="AC93" s="26"/>
-      <c r="AD93" s="26"/>
-      <c r="AE93" s="26"/>
+      <c r="X93" s="27"/>
+      <c r="Y93" s="27"/>
+      <c r="Z93" s="27"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="27"/>
+      <c r="AC93" s="27"/>
+      <c r="AD93" s="27"/>
+      <c r="AE93" s="27"/>
       <c r="AF93" s="22"/>
       <c r="AG93" s="22"/>
       <c r="AH93" s="22"/>
@@ -7216,38 +7216,38 @@
       <c r="C94" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
       <c r="K94" s="29" t="s">
         <v>186</v>
       </c>
       <c r="L94" s="22"/>
-      <c r="M94" s="26"/>
+      <c r="M94" s="27"/>
       <c r="N94" s="22"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
-      <c r="T94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="27"/>
+      <c r="S94" s="27"/>
+      <c r="T94" s="27"/>
       <c r="U94" s="22"/>
       <c r="V94" s="22"/>
       <c r="W94" s="22"/>
-      <c r="X94" s="26"/>
-      <c r="Y94" s="26"/>
-      <c r="Z94" s="26"/>
-      <c r="AA94" s="26"/>
-      <c r="AB94" s="26"/>
-      <c r="AC94" s="26"/>
-      <c r="AD94" s="26"/>
-      <c r="AE94" s="26"/>
+      <c r="X94" s="27"/>
+      <c r="Y94" s="27"/>
+      <c r="Z94" s="27"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="27"/>
+      <c r="AC94" s="27"/>
+      <c r="AD94" s="27"/>
+      <c r="AE94" s="27"/>
       <c r="AF94" s="22"/>
-      <c r="AG94" s="28" t="s">
+      <c r="AG94" s="25" t="s">
         <v>188</v>
       </c>
       <c r="AH94" s="22"/>
@@ -7272,12 +7272,12 @@
       <c r="C95" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
       <c r="J95" s="29" t="s">
         <v>86</v>
       </c>
@@ -7285,38 +7285,38 @@
         <v>190</v>
       </c>
       <c r="L95" s="36"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="27"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27"/>
-      <c r="U95" s="27"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="26"/>
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="26"/>
-      <c r="AD95" s="26"/>
-      <c r="AE95" s="26"/>
-      <c r="AF95" s="27"/>
-      <c r="AG95" s="27"/>
-      <c r="AH95" s="27"/>
-      <c r="AI95" s="27"/>
-      <c r="AJ95" s="27"/>
-      <c r="AK95" s="27"/>
-      <c r="AL95" s="27"/>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="27"/>
-      <c r="AO95" s="27"/>
-      <c r="AP95" s="27"/>
-      <c r="AQ95" s="27"/>
-      <c r="AR95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="27"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="27"/>
+      <c r="AC95" s="27"/>
+      <c r="AD95" s="27"/>
+      <c r="AE95" s="27"/>
+      <c r="AF95" s="28"/>
+      <c r="AG95" s="28"/>
+      <c r="AH95" s="28"/>
+      <c r="AI95" s="28"/>
+      <c r="AJ95" s="28"/>
+      <c r="AK95" s="28"/>
+      <c r="AL95" s="28"/>
+      <c r="AM95" s="28"/>
+      <c r="AN95" s="28"/>
+      <c r="AO95" s="28"/>
+      <c r="AP95" s="28"/>
+      <c r="AQ95" s="28"/>
+      <c r="AR95" s="28"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="40" t="s">
@@ -7328,36 +7328,36 @@
       <c r="C96" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="29" t="s">
         <v>190</v>
       </c>
       <c r="L96" s="22"/>
-      <c r="M96" s="26"/>
+      <c r="M96" s="27"/>
       <c r="N96" s="22"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
-      <c r="T96" s="26"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="27"/>
+      <c r="S96" s="27"/>
+      <c r="T96" s="27"/>
       <c r="U96" s="22"/>
       <c r="V96" s="22"/>
       <c r="W96" s="22"/>
-      <c r="X96" s="26"/>
-      <c r="Y96" s="26"/>
-      <c r="Z96" s="26"/>
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="26"/>
-      <c r="AD96" s="26"/>
-      <c r="AE96" s="26"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="27"/>
+      <c r="Z96" s="27"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="27"/>
+      <c r="AC96" s="27"/>
+      <c r="AD96" s="27"/>
+      <c r="AE96" s="27"/>
       <c r="AF96" s="22"/>
       <c r="AG96" s="22"/>
       <c r="AH96" s="22"/>
@@ -7382,34 +7382,34 @@
       <c r="C97" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="26"/>
+      <c r="M97" s="27"/>
       <c r="N97" s="22"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
-      <c r="T97" s="26"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="27"/>
+      <c r="S97" s="27"/>
+      <c r="T97" s="27"/>
       <c r="U97" s="22"/>
       <c r="V97" s="22"/>
       <c r="W97" s="22"/>
-      <c r="X97" s="26"/>
-      <c r="Y97" s="26"/>
-      <c r="Z97" s="26"/>
-      <c r="AA97" s="26"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="26"/>
-      <c r="AD97" s="26"/>
-      <c r="AE97" s="26"/>
+      <c r="X97" s="27"/>
+      <c r="Y97" s="27"/>
+      <c r="Z97" s="27"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="27"/>
+      <c r="AC97" s="27"/>
+      <c r="AD97" s="27"/>
+      <c r="AE97" s="27"/>
       <c r="AF97" s="22"/>
       <c r="AG97" s="22"/>
       <c r="AH97" s="22"/>
@@ -7430,34 +7430,34 @@
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="41"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
-      <c r="G98" s="26"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="27"/>
       <c r="L98" s="22"/>
-      <c r="M98" s="26"/>
+      <c r="M98" s="27"/>
       <c r="N98" s="22"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
-      <c r="T98" s="26"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="27"/>
+      <c r="S98" s="27"/>
+      <c r="T98" s="27"/>
       <c r="U98" s="22"/>
       <c r="V98" s="22"/>
       <c r="W98" s="22"/>
-      <c r="X98" s="26"/>
-      <c r="Y98" s="26"/>
-      <c r="Z98" s="26"/>
-      <c r="AA98" s="26"/>
-      <c r="AB98" s="26"/>
-      <c r="AC98" s="26"/>
-      <c r="AD98" s="26"/>
-      <c r="AE98" s="26"/>
+      <c r="X98" s="27"/>
+      <c r="Y98" s="27"/>
+      <c r="Z98" s="27"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="27"/>
+      <c r="AC98" s="27"/>
+      <c r="AD98" s="27"/>
+      <c r="AE98" s="27"/>
       <c r="AF98" s="22"/>
       <c r="AG98" s="22"/>
       <c r="AH98" s="22"/>
@@ -7480,34 +7480,34 @@
         <v>167</v>
       </c>
       <c r="C99" s="41"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
       <c r="L99" s="22"/>
-      <c r="M99" s="26"/>
+      <c r="M99" s="27"/>
       <c r="N99" s="22"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
-      <c r="T99" s="26"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
       <c r="U99" s="22"/>
       <c r="V99" s="22"/>
       <c r="W99" s="22"/>
-      <c r="X99" s="26"/>
-      <c r="Y99" s="26"/>
-      <c r="Z99" s="26"/>
-      <c r="AA99" s="26"/>
-      <c r="AB99" s="26"/>
-      <c r="AC99" s="26"/>
-      <c r="AD99" s="26"/>
-      <c r="AE99" s="26"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
       <c r="AF99" s="22"/>
       <c r="AG99" s="22"/>
       <c r="AH99" s="22"/>
@@ -7846,49 +7846,49 @@
       <c r="C106" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
       <c r="L106" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M106" s="22"/>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
-      <c r="T106" s="26"/>
-      <c r="U106" s="26"/>
-      <c r="V106" s="26"/>
-      <c r="W106" s="26"/>
-      <c r="X106" s="26"/>
-      <c r="Y106" s="26"/>
-      <c r="Z106" s="26"/>
-      <c r="AA106" s="26"/>
-      <c r="AB106" s="26"/>
-      <c r="AC106" s="26"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="27"/>
+      <c r="R106" s="27"/>
+      <c r="S106" s="27"/>
+      <c r="T106" s="27"/>
+      <c r="U106" s="27"/>
+      <c r="V106" s="27"/>
+      <c r="W106" s="27"/>
+      <c r="X106" s="27"/>
+      <c r="Y106" s="27"/>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
       <c r="AD106" s="22"/>
       <c r="AE106" s="22"/>
-      <c r="AF106" s="26"/>
-      <c r="AG106" s="27"/>
-      <c r="AH106" s="27"/>
-      <c r="AI106" s="27"/>
-      <c r="AJ106" s="27"/>
-      <c r="AK106" s="27"/>
-      <c r="AL106" s="27"/>
-      <c r="AM106" s="27"/>
-      <c r="AN106" s="27"/>
-      <c r="AO106" s="27"/>
-      <c r="AP106" s="27"/>
-      <c r="AQ106" s="27"/>
-      <c r="AR106" s="27"/>
+      <c r="AF106" s="27"/>
+      <c r="AG106" s="28"/>
+      <c r="AH106" s="28"/>
+      <c r="AI106" s="28"/>
+      <c r="AJ106" s="28"/>
+      <c r="AK106" s="28"/>
+      <c r="AL106" s="28"/>
+      <c r="AM106" s="28"/>
+      <c r="AN106" s="28"/>
+      <c r="AO106" s="28"/>
+      <c r="AP106" s="28"/>
+      <c r="AQ106" s="28"/>
+      <c r="AR106" s="28"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="45" t="s">
@@ -7900,49 +7900,49 @@
       <c r="C107" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
       <c r="L107" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M107" s="22"/>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
-      <c r="T107" s="26"/>
-      <c r="U107" s="26"/>
-      <c r="V107" s="26"/>
-      <c r="W107" s="26"/>
-      <c r="X107" s="26"/>
-      <c r="Y107" s="26"/>
-      <c r="Z107" s="26"/>
-      <c r="AA107" s="26"/>
-      <c r="AB107" s="26"/>
-      <c r="AC107" s="26"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="27"/>
+      <c r="R107" s="27"/>
+      <c r="S107" s="27"/>
+      <c r="T107" s="27"/>
+      <c r="U107" s="27"/>
+      <c r="V107" s="27"/>
+      <c r="W107" s="27"/>
+      <c r="X107" s="27"/>
+      <c r="Y107" s="27"/>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
       <c r="AD107" s="22"/>
       <c r="AE107" s="22"/>
-      <c r="AF107" s="26"/>
-      <c r="AG107" s="27"/>
-      <c r="AH107" s="27"/>
-      <c r="AI107" s="27"/>
-      <c r="AJ107" s="27"/>
-      <c r="AK107" s="27"/>
-      <c r="AL107" s="27"/>
-      <c r="AM107" s="27"/>
-      <c r="AN107" s="27"/>
-      <c r="AO107" s="27"/>
-      <c r="AP107" s="27"/>
-      <c r="AQ107" s="27"/>
-      <c r="AR107" s="27"/>
+      <c r="AF107" s="27"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="28"/>
+      <c r="AK107" s="28"/>
+      <c r="AL107" s="28"/>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="28"/>
+      <c r="AR107" s="28"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="45" t="s">
@@ -7954,49 +7954,49 @@
       <c r="C108" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
       <c r="L108" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M108" s="22"/>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
-      <c r="T108" s="26"/>
-      <c r="U108" s="26"/>
-      <c r="V108" s="26"/>
-      <c r="W108" s="26"/>
-      <c r="X108" s="26"/>
-      <c r="Y108" s="26"/>
-      <c r="Z108" s="26"/>
-      <c r="AA108" s="26"/>
-      <c r="AB108" s="26"/>
-      <c r="AC108" s="26"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="27"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="27"/>
+      <c r="T108" s="27"/>
+      <c r="U108" s="27"/>
+      <c r="V108" s="27"/>
+      <c r="W108" s="27"/>
+      <c r="X108" s="27"/>
+      <c r="Y108" s="27"/>
+      <c r="Z108" s="27"/>
+      <c r="AA108" s="27"/>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
       <c r="AD108" s="22"/>
       <c r="AE108" s="22"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
-      <c r="AI108" s="27"/>
-      <c r="AJ108" s="27"/>
-      <c r="AK108" s="27"/>
-      <c r="AL108" s="27"/>
-      <c r="AM108" s="27"/>
-      <c r="AN108" s="27"/>
-      <c r="AO108" s="27"/>
-      <c r="AP108" s="27"/>
-      <c r="AQ108" s="27"/>
-      <c r="AR108" s="27"/>
+      <c r="AF108" s="27"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="28"/>
+      <c r="AI108" s="28"/>
+      <c r="AJ108" s="28"/>
+      <c r="AK108" s="28"/>
+      <c r="AL108" s="28"/>
+      <c r="AM108" s="28"/>
+      <c r="AN108" s="28"/>
+      <c r="AO108" s="28"/>
+      <c r="AP108" s="28"/>
+      <c r="AQ108" s="28"/>
+      <c r="AR108" s="28"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="45" t="s">
@@ -8008,49 +8008,49 @@
       <c r="C109" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
       <c r="L109" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M109" s="22"/>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
-      <c r="T109" s="26"/>
-      <c r="U109" s="26"/>
-      <c r="V109" s="26"/>
-      <c r="W109" s="26"/>
-      <c r="X109" s="26"/>
-      <c r="Y109" s="26"/>
-      <c r="Z109" s="26"/>
-      <c r="AA109" s="26"/>
-      <c r="AB109" s="26"/>
-      <c r="AC109" s="26"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="27"/>
+      <c r="U109" s="27"/>
+      <c r="V109" s="27"/>
+      <c r="W109" s="27"/>
+      <c r="X109" s="27"/>
+      <c r="Y109" s="27"/>
+      <c r="Z109" s="27"/>
+      <c r="AA109" s="27"/>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
       <c r="AD109" s="22"/>
       <c r="AE109" s="22"/>
-      <c r="AF109" s="26"/>
-      <c r="AG109" s="27"/>
-      <c r="AH109" s="27"/>
-      <c r="AI109" s="27"/>
-      <c r="AJ109" s="27"/>
-      <c r="AK109" s="27"/>
-      <c r="AL109" s="27"/>
-      <c r="AM109" s="27"/>
-      <c r="AN109" s="27"/>
-      <c r="AO109" s="27"/>
-      <c r="AP109" s="27"/>
-      <c r="AQ109" s="27"/>
-      <c r="AR109" s="27"/>
+      <c r="AF109" s="27"/>
+      <c r="AG109" s="28"/>
+      <c r="AH109" s="28"/>
+      <c r="AI109" s="28"/>
+      <c r="AJ109" s="28"/>
+      <c r="AK109" s="28"/>
+      <c r="AL109" s="28"/>
+      <c r="AM109" s="28"/>
+      <c r="AN109" s="28"/>
+      <c r="AO109" s="28"/>
+      <c r="AP109" s="28"/>
+      <c r="AQ109" s="28"/>
+      <c r="AR109" s="28"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="45" t="s">
@@ -8062,49 +8062,49 @@
       <c r="C110" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
       <c r="L110" s="29" t="s">
         <v>206</v>
       </c>
       <c r="M110" s="22"/>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
-      <c r="T110" s="26"/>
-      <c r="U110" s="26"/>
-      <c r="V110" s="26"/>
-      <c r="W110" s="26"/>
-      <c r="X110" s="26"/>
-      <c r="Y110" s="26"/>
-      <c r="Z110" s="26"/>
-      <c r="AA110" s="26"/>
-      <c r="AB110" s="26"/>
-      <c r="AC110" s="26"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="27"/>
+      <c r="R110" s="27"/>
+      <c r="S110" s="27"/>
+      <c r="T110" s="27"/>
+      <c r="U110" s="27"/>
+      <c r="V110" s="27"/>
+      <c r="W110" s="27"/>
+      <c r="X110" s="27"/>
+      <c r="Y110" s="27"/>
+      <c r="Z110" s="27"/>
+      <c r="AA110" s="27"/>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
       <c r="AD110" s="22"/>
       <c r="AE110" s="22"/>
-      <c r="AF110" s="26"/>
-      <c r="AG110" s="27"/>
-      <c r="AH110" s="27"/>
-      <c r="AI110" s="27"/>
-      <c r="AJ110" s="27"/>
-      <c r="AK110" s="27"/>
-      <c r="AL110" s="27"/>
-      <c r="AM110" s="27"/>
-      <c r="AN110" s="27"/>
-      <c r="AO110" s="27"/>
-      <c r="AP110" s="27"/>
-      <c r="AQ110" s="27"/>
-      <c r="AR110" s="27"/>
+      <c r="AF110" s="27"/>
+      <c r="AG110" s="28"/>
+      <c r="AH110" s="28"/>
+      <c r="AI110" s="28"/>
+      <c r="AJ110" s="28"/>
+      <c r="AK110" s="28"/>
+      <c r="AL110" s="28"/>
+      <c r="AM110" s="28"/>
+      <c r="AN110" s="28"/>
+      <c r="AO110" s="28"/>
+      <c r="AP110" s="28"/>
+      <c r="AQ110" s="28"/>
+      <c r="AR110" s="28"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="45" t="s">
@@ -8209,14 +8209,14 @@
       <c r="AH112" s="54"/>
       <c r="AI112" s="54"/>
       <c r="AJ112" s="54"/>
-      <c r="AK112" s="27"/>
-      <c r="AL112" s="27"/>
-      <c r="AM112" s="27"/>
-      <c r="AN112" s="27"/>
-      <c r="AO112" s="27"/>
-      <c r="AP112" s="27"/>
-      <c r="AQ112" s="27"/>
-      <c r="AR112" s="27"/>
+      <c r="AK112" s="28"/>
+      <c r="AL112" s="28"/>
+      <c r="AM112" s="28"/>
+      <c r="AN112" s="28"/>
+      <c r="AO112" s="28"/>
+      <c r="AP112" s="28"/>
+      <c r="AQ112" s="28"/>
+      <c r="AR112" s="28"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="45" t="s">
@@ -8228,12 +8228,12 @@
       <c r="C113" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="26"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
       <c r="J113" s="22"/>
       <c r="K113" s="34" t="s">
         <v>223</v>
@@ -8242,37 +8242,37 @@
         <v>206</v>
       </c>
       <c r="M113" s="22"/>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="26"/>
-      <c r="T113" s="26"/>
-      <c r="U113" s="26"/>
-      <c r="V113" s="26"/>
-      <c r="W113" s="26"/>
-      <c r="X113" s="26"/>
-      <c r="Y113" s="26"/>
-      <c r="Z113" s="26"/>
-      <c r="AA113" s="26"/>
-      <c r="AB113" s="26"/>
-      <c r="AC113" s="26"/>
+      <c r="N113" s="27"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="27"/>
+      <c r="Q113" s="27"/>
+      <c r="R113" s="27"/>
+      <c r="S113" s="27"/>
+      <c r="T113" s="27"/>
+      <c r="U113" s="27"/>
+      <c r="V113" s="27"/>
+      <c r="W113" s="27"/>
+      <c r="X113" s="27"/>
+      <c r="Y113" s="27"/>
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27"/>
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
       <c r="AD113" s="22"/>
       <c r="AE113" s="22"/>
-      <c r="AF113" s="26"/>
-      <c r="AG113" s="27"/>
-      <c r="AH113" s="27"/>
-      <c r="AI113" s="27"/>
-      <c r="AJ113" s="27"/>
-      <c r="AK113" s="27"/>
-      <c r="AL113" s="27"/>
-      <c r="AM113" s="27"/>
-      <c r="AN113" s="27"/>
-      <c r="AO113" s="27"/>
-      <c r="AP113" s="27"/>
-      <c r="AQ113" s="27"/>
-      <c r="AR113" s="27"/>
+      <c r="AF113" s="27"/>
+      <c r="AG113" s="28"/>
+      <c r="AH113" s="28"/>
+      <c r="AI113" s="28"/>
+      <c r="AJ113" s="28"/>
+      <c r="AK113" s="28"/>
+      <c r="AL113" s="28"/>
+      <c r="AM113" s="28"/>
+      <c r="AN113" s="28"/>
+      <c r="AO113" s="28"/>
+      <c r="AP113" s="28"/>
+      <c r="AQ113" s="28"/>
+      <c r="AR113" s="28"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="45" t="s">
@@ -8284,12 +8284,12 @@
       <c r="C114" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
       <c r="J114" s="22"/>
       <c r="K114" s="34" t="s">
         <v>226</v>
@@ -8298,37 +8298,37 @@
         <v>206</v>
       </c>
       <c r="M114" s="22"/>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
-      <c r="T114" s="26"/>
-      <c r="U114" s="26"/>
-      <c r="V114" s="26"/>
-      <c r="W114" s="26"/>
-      <c r="X114" s="26"/>
-      <c r="Y114" s="26"/>
-      <c r="Z114" s="26"/>
-      <c r="AA114" s="26"/>
-      <c r="AB114" s="26"/>
-      <c r="AC114" s="26"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="27"/>
+      <c r="R114" s="27"/>
+      <c r="S114" s="27"/>
+      <c r="T114" s="27"/>
+      <c r="U114" s="27"/>
+      <c r="V114" s="27"/>
+      <c r="W114" s="27"/>
+      <c r="X114" s="27"/>
+      <c r="Y114" s="27"/>
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
       <c r="AD114" s="22"/>
       <c r="AE114" s="22"/>
-      <c r="AF114" s="26"/>
-      <c r="AG114" s="27"/>
-      <c r="AH114" s="27"/>
-      <c r="AI114" s="27"/>
-      <c r="AJ114" s="27"/>
-      <c r="AK114" s="27"/>
-      <c r="AL114" s="27"/>
-      <c r="AM114" s="27"/>
-      <c r="AN114" s="27"/>
-      <c r="AO114" s="27"/>
-      <c r="AP114" s="27"/>
-      <c r="AQ114" s="27"/>
-      <c r="AR114" s="27"/>
+      <c r="AF114" s="27"/>
+      <c r="AG114" s="28"/>
+      <c r="AH114" s="28"/>
+      <c r="AI114" s="28"/>
+      <c r="AJ114" s="28"/>
+      <c r="AK114" s="28"/>
+      <c r="AL114" s="28"/>
+      <c r="AM114" s="28"/>
+      <c r="AN114" s="28"/>
+      <c r="AO114" s="28"/>
+      <c r="AP114" s="28"/>
+      <c r="AQ114" s="28"/>
+      <c r="AR114" s="28"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="45" t="s">
@@ -8340,12 +8340,12 @@
       <c r="C115" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
       <c r="J115" s="22"/>
       <c r="K115" s="34" t="s">
         <v>229</v>
@@ -8354,37 +8354,37 @@
         <v>206</v>
       </c>
       <c r="M115" s="22"/>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-      <c r="S115" s="26"/>
-      <c r="T115" s="26"/>
-      <c r="U115" s="26"/>
-      <c r="V115" s="26"/>
-      <c r="W115" s="26"/>
-      <c r="X115" s="26"/>
-      <c r="Y115" s="26"/>
-      <c r="Z115" s="26"/>
-      <c r="AA115" s="26"/>
-      <c r="AB115" s="26"/>
-      <c r="AC115" s="26"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="27"/>
+      <c r="R115" s="27"/>
+      <c r="S115" s="27"/>
+      <c r="T115" s="27"/>
+      <c r="U115" s="27"/>
+      <c r="V115" s="27"/>
+      <c r="W115" s="27"/>
+      <c r="X115" s="27"/>
+      <c r="Y115" s="27"/>
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
       <c r="AD115" s="22"/>
       <c r="AE115" s="22"/>
-      <c r="AF115" s="26"/>
-      <c r="AG115" s="27"/>
-      <c r="AH115" s="27"/>
-      <c r="AI115" s="27"/>
-      <c r="AJ115" s="27"/>
-      <c r="AK115" s="27"/>
-      <c r="AL115" s="27"/>
-      <c r="AM115" s="27"/>
-      <c r="AN115" s="27"/>
-      <c r="AO115" s="27"/>
-      <c r="AP115" s="27"/>
-      <c r="AQ115" s="27"/>
-      <c r="AR115" s="27"/>
+      <c r="AF115" s="27"/>
+      <c r="AG115" s="28"/>
+      <c r="AH115" s="28"/>
+      <c r="AI115" s="28"/>
+      <c r="AJ115" s="28"/>
+      <c r="AK115" s="28"/>
+      <c r="AL115" s="28"/>
+      <c r="AM115" s="28"/>
+      <c r="AN115" s="28"/>
+      <c r="AO115" s="28"/>
+      <c r="AP115" s="28"/>
+      <c r="AQ115" s="28"/>
+      <c r="AR115" s="28"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="45" t="s">
@@ -8396,12 +8396,12 @@
       <c r="C116" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
       <c r="J116" s="22"/>
       <c r="K116" s="34" t="s">
         <v>232</v>
@@ -8410,37 +8410,37 @@
         <v>206</v>
       </c>
       <c r="M116" s="22"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
-      <c r="T116" s="26"/>
-      <c r="U116" s="26"/>
-      <c r="V116" s="26"/>
-      <c r="W116" s="26"/>
-      <c r="X116" s="26"/>
-      <c r="Y116" s="26"/>
-      <c r="Z116" s="26"/>
-      <c r="AA116" s="26"/>
-      <c r="AB116" s="26"/>
-      <c r="AC116" s="26"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="27"/>
+      <c r="R116" s="27"/>
+      <c r="S116" s="27"/>
+      <c r="T116" s="27"/>
+      <c r="U116" s="27"/>
+      <c r="V116" s="27"/>
+      <c r="W116" s="27"/>
+      <c r="X116" s="27"/>
+      <c r="Y116" s="27"/>
+      <c r="Z116" s="27"/>
+      <c r="AA116" s="27"/>
+      <c r="AB116" s="27"/>
+      <c r="AC116" s="27"/>
       <c r="AD116" s="22"/>
       <c r="AE116" s="22"/>
-      <c r="AF116" s="26"/>
-      <c r="AG116" s="27"/>
-      <c r="AH116" s="27"/>
-      <c r="AI116" s="27"/>
-      <c r="AJ116" s="27"/>
-      <c r="AK116" s="27"/>
-      <c r="AL116" s="27"/>
-      <c r="AM116" s="27"/>
-      <c r="AN116" s="27"/>
-      <c r="AO116" s="27"/>
-      <c r="AP116" s="27"/>
-      <c r="AQ116" s="27"/>
-      <c r="AR116" s="27"/>
+      <c r="AF116" s="27"/>
+      <c r="AG116" s="28"/>
+      <c r="AH116" s="28"/>
+      <c r="AI116" s="28"/>
+      <c r="AJ116" s="28"/>
+      <c r="AK116" s="28"/>
+      <c r="AL116" s="28"/>
+      <c r="AM116" s="28"/>
+      <c r="AN116" s="28"/>
+      <c r="AO116" s="28"/>
+      <c r="AP116" s="28"/>
+      <c r="AQ116" s="28"/>
+      <c r="AR116" s="28"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="45" t="s">
@@ -8452,12 +8452,12 @@
       <c r="C117" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="26"/>
-      <c r="I117" s="26"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
       <c r="J117" s="22"/>
       <c r="K117" s="34" t="s">
         <v>235</v>
@@ -8466,37 +8466,37 @@
         <v>206</v>
       </c>
       <c r="M117" s="22"/>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="26"/>
-      <c r="T117" s="26"/>
-      <c r="U117" s="26"/>
-      <c r="V117" s="26"/>
-      <c r="W117" s="26"/>
-      <c r="X117" s="26"/>
-      <c r="Y117" s="26"/>
-      <c r="Z117" s="26"/>
-      <c r="AA117" s="26"/>
-      <c r="AB117" s="26"/>
-      <c r="AC117" s="26"/>
+      <c r="N117" s="27"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="27"/>
+      <c r="Q117" s="27"/>
+      <c r="R117" s="27"/>
+      <c r="S117" s="27"/>
+      <c r="T117" s="27"/>
+      <c r="U117" s="27"/>
+      <c r="V117" s="27"/>
+      <c r="W117" s="27"/>
+      <c r="X117" s="27"/>
+      <c r="Y117" s="27"/>
+      <c r="Z117" s="27"/>
+      <c r="AA117" s="27"/>
+      <c r="AB117" s="27"/>
+      <c r="AC117" s="27"/>
       <c r="AD117" s="22"/>
       <c r="AE117" s="22"/>
-      <c r="AF117" s="26"/>
-      <c r="AG117" s="27"/>
-      <c r="AH117" s="27"/>
-      <c r="AI117" s="27"/>
-      <c r="AJ117" s="27"/>
-      <c r="AK117" s="27"/>
-      <c r="AL117" s="27"/>
-      <c r="AM117" s="27"/>
-      <c r="AN117" s="27"/>
-      <c r="AO117" s="27"/>
-      <c r="AP117" s="27"/>
-      <c r="AQ117" s="27"/>
-      <c r="AR117" s="27"/>
+      <c r="AF117" s="27"/>
+      <c r="AG117" s="28"/>
+      <c r="AH117" s="28"/>
+      <c r="AI117" s="28"/>
+      <c r="AJ117" s="28"/>
+      <c r="AK117" s="28"/>
+      <c r="AL117" s="28"/>
+      <c r="AM117" s="28"/>
+      <c r="AN117" s="28"/>
+      <c r="AO117" s="28"/>
+      <c r="AP117" s="28"/>
+      <c r="AQ117" s="28"/>
+      <c r="AR117" s="28"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="45" t="s">
@@ -8508,51 +8508,51 @@
       <c r="C118" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
-      <c r="H118" s="26"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
       <c r="K118" s="55" t="s">
         <v>238</v>
       </c>
       <c r="L118" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M118" s="26"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="27"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="27"/>
-      <c r="R118" s="27"/>
-      <c r="S118" s="27"/>
-      <c r="T118" s="27"/>
-      <c r="U118" s="27"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="26"/>
-      <c r="AA118" s="26"/>
-      <c r="AB118" s="26"/>
-      <c r="AC118" s="26"/>
-      <c r="AD118" s="26"/>
-      <c r="AE118" s="26"/>
-      <c r="AF118" s="27"/>
-      <c r="AG118" s="27"/>
-      <c r="AH118" s="27"/>
-      <c r="AI118" s="27"/>
-      <c r="AJ118" s="27"/>
-      <c r="AK118" s="27"/>
-      <c r="AL118" s="27"/>
-      <c r="AM118" s="27"/>
-      <c r="AN118" s="27"/>
-      <c r="AO118" s="27"/>
-      <c r="AP118" s="27"/>
-      <c r="AQ118" s="27"/>
-      <c r="AR118" s="27"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="28"/>
+      <c r="O118" s="28"/>
+      <c r="P118" s="28"/>
+      <c r="Q118" s="28"/>
+      <c r="R118" s="28"/>
+      <c r="S118" s="28"/>
+      <c r="T118" s="28"/>
+      <c r="U118" s="28"/>
+      <c r="V118" s="28"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="27"/>
+      <c r="AA118" s="27"/>
+      <c r="AB118" s="27"/>
+      <c r="AC118" s="27"/>
+      <c r="AD118" s="27"/>
+      <c r="AE118" s="27"/>
+      <c r="AF118" s="28"/>
+      <c r="AG118" s="28"/>
+      <c r="AH118" s="28"/>
+      <c r="AI118" s="28"/>
+      <c r="AJ118" s="28"/>
+      <c r="AK118" s="28"/>
+      <c r="AL118" s="28"/>
+      <c r="AM118" s="28"/>
+      <c r="AN118" s="28"/>
+      <c r="AO118" s="28"/>
+      <c r="AP118" s="28"/>
+      <c r="AQ118" s="28"/>
+      <c r="AR118" s="28"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="45" t="s">
@@ -8657,14 +8657,14 @@
       <c r="AH120" s="54"/>
       <c r="AI120" s="54"/>
       <c r="AJ120" s="54"/>
-      <c r="AK120" s="27"/>
-      <c r="AL120" s="27"/>
-      <c r="AM120" s="27"/>
-      <c r="AN120" s="27"/>
-      <c r="AO120" s="27"/>
-      <c r="AP120" s="27"/>
-      <c r="AQ120" s="27"/>
-      <c r="AR120" s="27"/>
+      <c r="AK120" s="28"/>
+      <c r="AL120" s="28"/>
+      <c r="AM120" s="28"/>
+      <c r="AN120" s="28"/>
+      <c r="AO120" s="28"/>
+      <c r="AP120" s="28"/>
+      <c r="AQ120" s="28"/>
+      <c r="AR120" s="28"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="45" t="s">
@@ -8713,14 +8713,14 @@
       <c r="AH121" s="54"/>
       <c r="AI121" s="54"/>
       <c r="AJ121" s="54"/>
-      <c r="AK121" s="27"/>
-      <c r="AL121" s="27"/>
-      <c r="AM121" s="27"/>
-      <c r="AN121" s="27"/>
-      <c r="AO121" s="27"/>
-      <c r="AP121" s="27"/>
-      <c r="AQ121" s="27"/>
-      <c r="AR121" s="27"/>
+      <c r="AK121" s="28"/>
+      <c r="AL121" s="28"/>
+      <c r="AM121" s="28"/>
+      <c r="AN121" s="28"/>
+      <c r="AO121" s="28"/>
+      <c r="AP121" s="28"/>
+      <c r="AQ121" s="28"/>
+      <c r="AR121" s="28"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="45" t="s">
@@ -8769,14 +8769,14 @@
       <c r="AH122" s="54"/>
       <c r="AI122" s="54"/>
       <c r="AJ122" s="54"/>
-      <c r="AK122" s="27"/>
-      <c r="AL122" s="27"/>
-      <c r="AM122" s="27"/>
-      <c r="AN122" s="27"/>
-      <c r="AO122" s="27"/>
-      <c r="AP122" s="27"/>
-      <c r="AQ122" s="27"/>
-      <c r="AR122" s="27"/>
+      <c r="AK122" s="28"/>
+      <c r="AL122" s="28"/>
+      <c r="AM122" s="28"/>
+      <c r="AN122" s="28"/>
+      <c r="AO122" s="28"/>
+      <c r="AP122" s="28"/>
+      <c r="AQ122" s="28"/>
+      <c r="AR122" s="28"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="45" t="s">
@@ -8825,14 +8825,14 @@
       <c r="AH123" s="54"/>
       <c r="AI123" s="54"/>
       <c r="AJ123" s="54"/>
-      <c r="AK123" s="27"/>
-      <c r="AL123" s="27"/>
-      <c r="AM123" s="27"/>
-      <c r="AN123" s="27"/>
-      <c r="AO123" s="27"/>
-      <c r="AP123" s="27"/>
-      <c r="AQ123" s="27"/>
-      <c r="AR123" s="27"/>
+      <c r="AK123" s="28"/>
+      <c r="AL123" s="28"/>
+      <c r="AM123" s="28"/>
+      <c r="AN123" s="28"/>
+      <c r="AO123" s="28"/>
+      <c r="AP123" s="28"/>
+      <c r="AQ123" s="28"/>
+      <c r="AR123" s="28"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="45" t="s">
@@ -8881,14 +8881,14 @@
       <c r="AH124" s="54"/>
       <c r="AI124" s="54"/>
       <c r="AJ124" s="54"/>
-      <c r="AK124" s="27"/>
-      <c r="AL124" s="27"/>
-      <c r="AM124" s="27"/>
-      <c r="AN124" s="27"/>
-      <c r="AO124" s="27"/>
-      <c r="AP124" s="27"/>
-      <c r="AQ124" s="27"/>
-      <c r="AR124" s="27"/>
+      <c r="AK124" s="28"/>
+      <c r="AL124" s="28"/>
+      <c r="AM124" s="28"/>
+      <c r="AN124" s="28"/>
+      <c r="AO124" s="28"/>
+      <c r="AP124" s="28"/>
+      <c r="AQ124" s="28"/>
+      <c r="AR124" s="28"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="45" t="s">
@@ -8937,14 +8937,14 @@
       <c r="AH125" s="54"/>
       <c r="AI125" s="54"/>
       <c r="AJ125" s="54"/>
-      <c r="AK125" s="27"/>
-      <c r="AL125" s="27"/>
-      <c r="AM125" s="27"/>
-      <c r="AN125" s="27"/>
-      <c r="AO125" s="27"/>
-      <c r="AP125" s="27"/>
-      <c r="AQ125" s="27"/>
-      <c r="AR125" s="27"/>
+      <c r="AK125" s="28"/>
+      <c r="AL125" s="28"/>
+      <c r="AM125" s="28"/>
+      <c r="AN125" s="28"/>
+      <c r="AO125" s="28"/>
+      <c r="AP125" s="28"/>
+      <c r="AQ125" s="28"/>
+      <c r="AR125" s="28"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="45" t="s">
@@ -8993,14 +8993,14 @@
       <c r="AH126" s="54"/>
       <c r="AI126" s="54"/>
       <c r="AJ126" s="54"/>
-      <c r="AK126" s="27"/>
-      <c r="AL126" s="27"/>
-      <c r="AM126" s="27"/>
-      <c r="AN126" s="27"/>
-      <c r="AO126" s="27"/>
-      <c r="AP126" s="27"/>
-      <c r="AQ126" s="27"/>
-      <c r="AR126" s="27"/>
+      <c r="AK126" s="28"/>
+      <c r="AL126" s="28"/>
+      <c r="AM126" s="28"/>
+      <c r="AN126" s="28"/>
+      <c r="AO126" s="28"/>
+      <c r="AP126" s="28"/>
+      <c r="AQ126" s="28"/>
+      <c r="AR126" s="28"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="45" t="s">
@@ -9049,14 +9049,14 @@
       <c r="AH127" s="54"/>
       <c r="AI127" s="54"/>
       <c r="AJ127" s="54"/>
-      <c r="AK127" s="27"/>
-      <c r="AL127" s="27"/>
-      <c r="AM127" s="27"/>
-      <c r="AN127" s="27"/>
-      <c r="AO127" s="27"/>
-      <c r="AP127" s="27"/>
-      <c r="AQ127" s="27"/>
-      <c r="AR127" s="27"/>
+      <c r="AK127" s="28"/>
+      <c r="AL127" s="28"/>
+      <c r="AM127" s="28"/>
+      <c r="AN127" s="28"/>
+      <c r="AO127" s="28"/>
+      <c r="AP127" s="28"/>
+      <c r="AQ127" s="28"/>
+      <c r="AR127" s="28"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="45" t="s">
@@ -9105,14 +9105,14 @@
       <c r="AH128" s="54"/>
       <c r="AI128" s="54"/>
       <c r="AJ128" s="54"/>
-      <c r="AK128" s="27"/>
-      <c r="AL128" s="27"/>
-      <c r="AM128" s="27"/>
-      <c r="AN128" s="27"/>
-      <c r="AO128" s="27"/>
-      <c r="AP128" s="27"/>
-      <c r="AQ128" s="27"/>
-      <c r="AR128" s="27"/>
+      <c r="AK128" s="28"/>
+      <c r="AL128" s="28"/>
+      <c r="AM128" s="28"/>
+      <c r="AN128" s="28"/>
+      <c r="AO128" s="28"/>
+      <c r="AP128" s="28"/>
+      <c r="AQ128" s="28"/>
+      <c r="AR128" s="28"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="45" t="s">
@@ -9161,14 +9161,14 @@
       <c r="AH129" s="54"/>
       <c r="AI129" s="54"/>
       <c r="AJ129" s="54"/>
-      <c r="AK129" s="27"/>
-      <c r="AL129" s="27"/>
-      <c r="AM129" s="27"/>
-      <c r="AN129" s="27"/>
-      <c r="AO129" s="27"/>
-      <c r="AP129" s="27"/>
-      <c r="AQ129" s="27"/>
-      <c r="AR129" s="27"/>
+      <c r="AK129" s="28"/>
+      <c r="AL129" s="28"/>
+      <c r="AM129" s="28"/>
+      <c r="AN129" s="28"/>
+      <c r="AO129" s="28"/>
+      <c r="AP129" s="28"/>
+      <c r="AQ129" s="28"/>
+      <c r="AR129" s="28"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="45" t="s">
@@ -9180,51 +9180,51 @@
       <c r="C130" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="26"/>
-      <c r="H130" s="26"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="27"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
       <c r="K130" s="55" t="s">
         <v>274</v>
       </c>
       <c r="L130" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M130" s="26"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
-      <c r="U130" s="27"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="26"/>
-      <c r="AA130" s="26"/>
-      <c r="AB130" s="26"/>
-      <c r="AC130" s="26"/>
-      <c r="AD130" s="26"/>
-      <c r="AE130" s="26"/>
-      <c r="AF130" s="27"/>
-      <c r="AG130" s="27"/>
-      <c r="AH130" s="27"/>
-      <c r="AI130" s="27"/>
-      <c r="AJ130" s="27"/>
-      <c r="AK130" s="27"/>
-      <c r="AL130" s="27"/>
-      <c r="AM130" s="27"/>
-      <c r="AN130" s="27"/>
-      <c r="AO130" s="27"/>
-      <c r="AP130" s="27"/>
-      <c r="AQ130" s="27"/>
-      <c r="AR130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="28"/>
+      <c r="O130" s="28"/>
+      <c r="P130" s="28"/>
+      <c r="Q130" s="28"/>
+      <c r="R130" s="28"/>
+      <c r="S130" s="28"/>
+      <c r="T130" s="28"/>
+      <c r="U130" s="28"/>
+      <c r="V130" s="28"/>
+      <c r="W130" s="28"/>
+      <c r="X130" s="28"/>
+      <c r="Y130" s="28"/>
+      <c r="Z130" s="27"/>
+      <c r="AA130" s="27"/>
+      <c r="AB130" s="27"/>
+      <c r="AC130" s="27"/>
+      <c r="AD130" s="27"/>
+      <c r="AE130" s="27"/>
+      <c r="AF130" s="28"/>
+      <c r="AG130" s="28"/>
+      <c r="AH130" s="28"/>
+      <c r="AI130" s="28"/>
+      <c r="AJ130" s="28"/>
+      <c r="AK130" s="28"/>
+      <c r="AL130" s="28"/>
+      <c r="AM130" s="28"/>
+      <c r="AN130" s="28"/>
+      <c r="AO130" s="28"/>
+      <c r="AP130" s="28"/>
+      <c r="AQ130" s="28"/>
+      <c r="AR130" s="28"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="45" t="s">
@@ -9273,14 +9273,14 @@
       <c r="AH131" s="54"/>
       <c r="AI131" s="54"/>
       <c r="AJ131" s="54"/>
-      <c r="AK131" s="27"/>
-      <c r="AL131" s="27"/>
-      <c r="AM131" s="27"/>
-      <c r="AN131" s="27"/>
-      <c r="AO131" s="27"/>
-      <c r="AP131" s="27"/>
-      <c r="AQ131" s="27"/>
-      <c r="AR131" s="27"/>
+      <c r="AK131" s="28"/>
+      <c r="AL131" s="28"/>
+      <c r="AM131" s="28"/>
+      <c r="AN131" s="28"/>
+      <c r="AO131" s="28"/>
+      <c r="AP131" s="28"/>
+      <c r="AQ131" s="28"/>
+      <c r="AR131" s="28"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="45" t="s">
@@ -9329,14 +9329,14 @@
       <c r="AH132" s="54"/>
       <c r="AI132" s="54"/>
       <c r="AJ132" s="54"/>
-      <c r="AK132" s="27"/>
-      <c r="AL132" s="27"/>
-      <c r="AM132" s="27"/>
-      <c r="AN132" s="27"/>
-      <c r="AO132" s="27"/>
-      <c r="AP132" s="27"/>
-      <c r="AQ132" s="27"/>
-      <c r="AR132" s="27"/>
+      <c r="AK132" s="28"/>
+      <c r="AL132" s="28"/>
+      <c r="AM132" s="28"/>
+      <c r="AN132" s="28"/>
+      <c r="AO132" s="28"/>
+      <c r="AP132" s="28"/>
+      <c r="AQ132" s="28"/>
+      <c r="AR132" s="28"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="45" t="s">
@@ -9348,51 +9348,51 @@
       <c r="C133" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
       <c r="K133" s="55" t="s">
         <v>282</v>
       </c>
       <c r="L133" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M133" s="26"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="27"/>
-      <c r="U133" s="27"/>
-      <c r="V133" s="27"/>
-      <c r="W133" s="27"/>
-      <c r="X133" s="27"/>
-      <c r="Y133" s="27"/>
-      <c r="Z133" s="26"/>
-      <c r="AA133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AC133" s="26"/>
-      <c r="AD133" s="26"/>
-      <c r="AE133" s="26"/>
-      <c r="AF133" s="27"/>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="27"/>
-      <c r="AI133" s="27"/>
-      <c r="AJ133" s="27"/>
-      <c r="AK133" s="27"/>
-      <c r="AL133" s="27"/>
-      <c r="AM133" s="27"/>
-      <c r="AN133" s="27"/>
-      <c r="AO133" s="27"/>
-      <c r="AP133" s="27"/>
-      <c r="AQ133" s="27"/>
-      <c r="AR133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="28"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
+      <c r="R133" s="28"/>
+      <c r="S133" s="28"/>
+      <c r="T133" s="28"/>
+      <c r="U133" s="28"/>
+      <c r="V133" s="28"/>
+      <c r="W133" s="28"/>
+      <c r="X133" s="28"/>
+      <c r="Y133" s="28"/>
+      <c r="Z133" s="27"/>
+      <c r="AA133" s="27"/>
+      <c r="AB133" s="27"/>
+      <c r="AC133" s="27"/>
+      <c r="AD133" s="27"/>
+      <c r="AE133" s="27"/>
+      <c r="AF133" s="28"/>
+      <c r="AG133" s="28"/>
+      <c r="AH133" s="28"/>
+      <c r="AI133" s="28"/>
+      <c r="AJ133" s="28"/>
+      <c r="AK133" s="28"/>
+      <c r="AL133" s="28"/>
+      <c r="AM133" s="28"/>
+      <c r="AN133" s="28"/>
+      <c r="AO133" s="28"/>
+      <c r="AP133" s="28"/>
+      <c r="AQ133" s="28"/>
+      <c r="AR133" s="28"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="45" t="s">
@@ -9458,49 +9458,49 @@
       <c r="C135" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="26"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
       <c r="K135" s="57"/>
       <c r="L135" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="M135" s="26"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="27"/>
-      <c r="U135" s="27"/>
-      <c r="V135" s="27"/>
-      <c r="W135" s="27"/>
-      <c r="X135" s="27"/>
-      <c r="Y135" s="27"/>
-      <c r="Z135" s="26"/>
-      <c r="AA135" s="26"/>
-      <c r="AB135" s="26"/>
-      <c r="AC135" s="26"/>
-      <c r="AD135" s="26"/>
-      <c r="AE135" s="26"/>
-      <c r="AF135" s="27"/>
-      <c r="AG135" s="27"/>
-      <c r="AH135" s="27"/>
-      <c r="AI135" s="27"/>
-      <c r="AJ135" s="27"/>
-      <c r="AK135" s="27"/>
-      <c r="AL135" s="27"/>
-      <c r="AM135" s="27"/>
-      <c r="AN135" s="27"/>
-      <c r="AO135" s="27"/>
-      <c r="AP135" s="27"/>
-      <c r="AQ135" s="27"/>
-      <c r="AR135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="28"/>
+      <c r="O135" s="28"/>
+      <c r="P135" s="28"/>
+      <c r="Q135" s="28"/>
+      <c r="R135" s="28"/>
+      <c r="S135" s="28"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+      <c r="V135" s="28"/>
+      <c r="W135" s="28"/>
+      <c r="X135" s="28"/>
+      <c r="Y135" s="28"/>
+      <c r="Z135" s="27"/>
+      <c r="AA135" s="27"/>
+      <c r="AB135" s="27"/>
+      <c r="AC135" s="27"/>
+      <c r="AD135" s="27"/>
+      <c r="AE135" s="27"/>
+      <c r="AF135" s="28"/>
+      <c r="AG135" s="28"/>
+      <c r="AH135" s="28"/>
+      <c r="AI135" s="28"/>
+      <c r="AJ135" s="28"/>
+      <c r="AK135" s="28"/>
+      <c r="AL135" s="28"/>
+      <c r="AM135" s="28"/>
+      <c r="AN135" s="28"/>
+      <c r="AO135" s="28"/>
+      <c r="AP135" s="28"/>
+      <c r="AQ135" s="28"/>
+      <c r="AR135" s="28"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="45" t="s">
@@ -51315,7 +51315,7 @@
       </c>
       <c r="C2" s="79">
         <f>NOW()</f>
-        <v>45082.87983</v>
+        <v>45091.13327</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>400</v>
